--- a/264-indication-permettant-de-véhiculer-le-rôle-dinfirmier-coordinateur/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/264-indication-permettant-de-véhiculer-le-rôle-dinfirmier-coordinateur/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T09:33:39+00:00</t>
+    <t>2025-01-28T09:47:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/264-indication-permettant-de-véhiculer-le-rôle-dinfirmier-coordinateur/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/264-indication-permettant-de-véhiculer-le-rôle-dinfirmier-coordinateur/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T09:47:43+00:00</t>
+    <t>2025-01-28T09:59:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
